--- a/output/results/model_results.xlsx
+++ b/output/results/model_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,15 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>HoltWinters_MAE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>HoltWinters_MAPE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>HoltWinters_RMSE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>SARIMA_MAE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>SARIMA_MAPE</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SARIMA_R2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>SARIMA_RMSE</t>
         </is>
@@ -450,12 +465,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>563.1243989958476</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1532474490739666</v>
+      </c>
+      <c r="D2" t="n">
+        <v>564.4044705078396</v>
+      </c>
+      <c r="E2" t="n">
+        <v>637.0467594565633</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.1732404597455083</v>
       </c>
-      <c r="C2" t="n">
-        <v>-23.99077110767487</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>647.4428605280914</v>
       </c>
     </row>
@@ -466,12 +490,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>20.85884638814362</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0403980827591302</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.73452071333914</v>
+      </c>
+      <c r="E3" t="n">
+        <v>64.00603273691235</v>
+      </c>
+      <c r="F3" t="n">
         <v>0.1260561155724138</v>
       </c>
-      <c r="C3" t="n">
-        <v>-4.557536063012031</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>73.57874005758671</v>
       </c>
     </row>
@@ -482,12 +515,21 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>250.6421191263248</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1954654637473374</v>
+      </c>
+      <c r="D4" t="n">
+        <v>253.6267328671667</v>
+      </c>
+      <c r="E4" t="n">
+        <v>245.0770940683156</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.1911303102006136</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.089508728854234</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="G4" t="n">
         <v>249.0948323277368</v>
       </c>
     </row>
@@ -498,12 +540,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>278.208454836772</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1297036651934781</v>
+      </c>
+      <c r="D5" t="n">
+        <v>281.5885746961152</v>
+      </c>
+      <c r="E5" t="n">
+        <v>315.3766287539304</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.1634756285061786</v>
       </c>
-      <c r="C5" t="n">
-        <v>-11.21260529984705</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
         <v>323.3721443044716</v>
       </c>
     </row>
